--- a/doors-detector/results/house22_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house22_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8040478329183339</v>
+        <v>0.7922245448891567</v>
       </c>
       <c r="F2" t="n">
         <v>1320</v>
       </c>
       <c r="G2" t="n">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="H2" t="n">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4805137974172504</v>
+        <v>0.4383741690284083</v>
       </c>
       <c r="F3" t="n">
         <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5344588690403925</v>
+        <v>0.5327848959613826</v>
       </c>
       <c r="F4" t="n">
         <v>223</v>
       </c>
       <c r="G4" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" t="n">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7385906349318424</v>
+        <v>0.6515616881740582</v>
       </c>
       <c r="F5" t="n">
         <v>1320</v>
       </c>
       <c r="G5" t="n">
-        <v>1065</v>
+        <v>986</v>
       </c>
       <c r="H5" t="n">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6302243417323302</v>
+        <v>0.484624675402515</v>
       </c>
       <c r="F6" t="n">
         <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5811952235635172</v>
+        <v>0.6209435687113406</v>
       </c>
       <c r="F7" t="n">
         <v>223</v>
       </c>
       <c r="G7" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H7" t="n">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6891856224061175</v>
+        <v>0.7767812354526106</v>
       </c>
       <c r="F8" t="n">
         <v>1320</v>
       </c>
       <c r="G8" t="n">
-        <v>1009</v>
+        <v>1096</v>
       </c>
       <c r="H8" t="n">
-        <v>311</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6129510795528479</v>
+        <v>0.6491392969748634</v>
       </c>
       <c r="F9" t="n">
         <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.626913970380865</v>
+        <v>0.6084786500469915</v>
       </c>
       <c r="F10" t="n">
         <v>223</v>
       </c>
       <c r="G10" t="n">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H10" t="n">
-        <v>423</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6922258651865859</v>
+        <v>0.7213880343417455</v>
       </c>
       <c r="F11" t="n">
         <v>1320</v>
       </c>
       <c r="G11" t="n">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="H11" t="n">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5578797323642425</v>
+        <v>0.6604681495468054</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H12" t="n">
         <v>58</v>
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6124433632861881</v>
+        <v>0.639382110397577</v>
       </c>
       <c r="F13" t="n">
         <v>223</v>
       </c>
       <c r="G13" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H13" t="n">
-        <v>494</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6904451997229123</v>
+        <v>0.654473989710638</v>
       </c>
       <c r="F14" t="n">
         <v>1320</v>
       </c>
       <c r="G14" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="H14" t="n">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.597955094264777</v>
+        <v>0.7121123640308651</v>
       </c>
       <c r="F15" t="n">
         <v>84</v>
       </c>
       <c r="G15" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H15" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6476525387863996</v>
+        <v>0.6229936701228881</v>
       </c>
       <c r="F16" t="n">
         <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" t="n">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6419083138682934</v>
+        <v>0.7097661354773264</v>
       </c>
       <c r="F17" t="n">
         <v>1320</v>
       </c>
       <c r="G17" t="n">
-        <v>958</v>
+        <v>1033</v>
       </c>
       <c r="H17" t="n">
-        <v>362</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7156512493493762</v>
+        <v>0.6751498292361766</v>
       </c>
       <c r="F18" t="n">
         <v>84</v>
       </c>
       <c r="G18" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" t="n">
         <v>52</v>
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6090748009428838</v>
+        <v>0.6540281034458835</v>
       </c>
       <c r="F19" t="n">
         <v>223</v>
       </c>
       <c r="G19" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H19" t="n">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
